--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_25_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645179.7577856581</v>
+        <v>669176.8189792926</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12099616.04791786</v>
+        <v>12101176.53581382</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17457935.25014308</v>
+        <v>17457657.16194741</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5136405.173721807</v>
+        <v>5136211.500271205</v>
       </c>
     </row>
     <row r="11">
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L11" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M11" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P11" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K12" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L13" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M13" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N13" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O13" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P13" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L14" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M14" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P14" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K15" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L16" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M16" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N16" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O16" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P16" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L17" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P17" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q17" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K18" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L19" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M19" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N19" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O19" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P19" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L20" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M20" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P20" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q20" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K21" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9561,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L22" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M22" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N22" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O22" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P22" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L23" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M23" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P23" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q23" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K24" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L25" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M25" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N25" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O25" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P25" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L26" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M26" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P26" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q26" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K27" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L28" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M28" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N28" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O28" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P28" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L29" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M29" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P29" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q29" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K30" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L31" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M31" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N31" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O31" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P31" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L32" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M32" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P32" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K33" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L34" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M34" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N34" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O34" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P34" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L35" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M35" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P35" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q35" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K36" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L37" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M37" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N37" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O37" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P37" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L38" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M38" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P38" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q38" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K39" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L40" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M40" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N40" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O40" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P40" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L41" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M41" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P41" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q41" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K42" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11220,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L43" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M43" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N43" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O43" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P43" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>69.75247211164648</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28984570098882</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L44" t="n">
-        <v>28.8362588753597</v>
+        <v>28.74947534450564</v>
       </c>
       <c r="M44" t="n">
-        <v>0.09656339947136416</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.161922983629779</v>
+        <v>9.069265482343809</v>
       </c>
       <c r="P44" t="n">
-        <v>42.66898511507466</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q44" t="n">
-        <v>80.70197082457096</v>
+        <v>80.64258426171739</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>60.55202075660908</v>
+        <v>60.52422152698378</v>
       </c>
       <c r="K45" t="n">
-        <v>24.54878065809741</v>
+        <v>24.50126734687161</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.42343072191045</v>
+        <v>50.38587124096644</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>60.67557455063191</v>
+        <v>60.64691470913344</v>
       </c>
       <c r="L46" t="n">
-        <v>47.4359690887577</v>
+        <v>47.39929435887775</v>
       </c>
       <c r="M46" t="n">
-        <v>46.72338342663512</v>
+        <v>46.68471506615329</v>
       </c>
       <c r="N46" t="n">
-        <v>37.67551094615366</v>
+        <v>37.63776203285606</v>
       </c>
       <c r="O46" t="n">
-        <v>55.31770395088348</v>
+        <v>55.28283671961447</v>
       </c>
       <c r="P46" t="n">
-        <v>66.5883684560963</v>
+        <v>66.55853351624533</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.43379593695437</v>
+        <v>14.43656122057276</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H11" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I11" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S11" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23351,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H12" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I12" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S12" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T12" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H13" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I13" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J13" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R13" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S13" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T13" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U13" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H14" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I14" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S14" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23588,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H15" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I15" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S15" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T15" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H16" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I16" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J16" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R16" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S16" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T16" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U16" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H17" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I17" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S17" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23825,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H18" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I18" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S18" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T18" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H19" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I19" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J19" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R19" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S19" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U19" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,13 +23983,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H20" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I20" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S20" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H21" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I21" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S21" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T21" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H22" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I22" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J22" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R22" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S22" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U22" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H23" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I23" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S23" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H24" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I24" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S24" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T24" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H25" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I25" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J25" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R25" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S25" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U25" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,13 +24457,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H26" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I26" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S26" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H27" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I27" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S27" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T27" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H28" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I28" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J28" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R28" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S28" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U28" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H29" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I29" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S29" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,13 +24773,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H30" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I30" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S30" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T30" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H31" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I31" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J31" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R31" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S31" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U31" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24931,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H32" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I32" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S32" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,13 +25010,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H33" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I33" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S33" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T33" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H34" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I34" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J34" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R34" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S34" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U34" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H35" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I35" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S35" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H36" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I36" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S36" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T36" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H37" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I37" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J37" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R37" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S37" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U37" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H38" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I38" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S38" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H39" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I39" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,16 +25517,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S39" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T39" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H40" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I40" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J40" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R40" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S40" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U40" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H41" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I41" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S41" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,13 +25721,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I42" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S42" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T42" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H43" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I43" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J43" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R43" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S43" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U43" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.9914553764875</v>
+        <v>413.9909054436208</v>
       </c>
       <c r="H44" t="n">
-        <v>326.0456339133427</v>
+        <v>326.0400019133721</v>
       </c>
       <c r="I44" t="n">
-        <v>159.9226849201952</v>
+        <v>159.9014836333536</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>67.4992912993288</v>
+        <v>67.46474657889404</v>
       </c>
       <c r="S44" t="n">
-        <v>179.1392278518137</v>
+        <v>179.1266962566148</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3557120022016</v>
+        <v>217.3533046710778</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2407503367447</v>
+        <v>251.2407063421153</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25958,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6419193661031</v>
+        <v>136.6416251260792</v>
       </c>
       <c r="H45" t="n">
-        <v>105.4594865644317</v>
+        <v>105.4566448252536</v>
       </c>
       <c r="I45" t="n">
-        <v>65.24074378433592</v>
+        <v>65.23061315193451</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>56.59722706556381</v>
+        <v>56.57895837355435</v>
       </c>
       <c r="S45" t="n">
-        <v>158.6512997408977</v>
+        <v>158.6458343615066</v>
       </c>
       <c r="T45" t="n">
-        <v>197.336797223147</v>
+        <v>197.3356112293665</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8952243311651</v>
+        <v>225.8952049732688</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4027833335613</v>
+        <v>167.4025366526095</v>
       </c>
       <c r="H46" t="n">
-        <v>156.9975751224423</v>
+        <v>156.9953819045248</v>
       </c>
       <c r="I46" t="n">
-        <v>137.761816287615</v>
+        <v>137.7543979186262</v>
       </c>
       <c r="J46" t="n">
-        <v>51.77372115642321</v>
+        <v>51.75628081312638</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.90864702141808</v>
+        <v>36.88799085553058</v>
       </c>
       <c r="R46" t="n">
-        <v>150.8459592031442</v>
+        <v>150.8348675305268</v>
       </c>
       <c r="S46" t="n">
-        <v>213.7659454939867</v>
+        <v>213.761646517762</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4323882309924</v>
+        <v>225.4313342305617</v>
       </c>
       <c r="U46" t="n">
-        <v>286.286945936951</v>
+        <v>286.2869324816264</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>901280.057113328</v>
+        <v>901279.8149850945</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>292183.8076937117</v>
+        <v>292161.5142737401</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>532529.6201660751</v>
+        <v>532529.620166075</v>
       </c>
       <c r="C2" t="n">
-        <v>532574.5792033297</v>
+        <v>532574.4361275554</v>
       </c>
       <c r="D2" t="n">
-        <v>532583.8658157184</v>
+        <v>532583.8658157187</v>
       </c>
       <c r="E2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="F2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="G2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="H2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="I2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="J2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="K2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="L2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="M2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="N2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="O2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
       <c r="P2" t="n">
-        <v>155700.5021628691</v>
+        <v>155706.5393300899</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>196825.9098199031</v>
+        <v>196199.539212527</v>
       </c>
       <c r="D3" t="n">
-        <v>38236.46568336456</v>
+        <v>38825.56230004828</v>
       </c>
       <c r="E3" t="n">
-        <v>52530.53686621619</v>
+        <v>52640.43902278915</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>467615.9599317313</v>
+        <v>467615.9599317312</v>
       </c>
       <c r="C4" t="n">
-        <v>392277.5763379417</v>
+        <v>392517.3300834398</v>
       </c>
       <c r="D4" t="n">
-        <v>377068.1104903041</v>
+        <v>377068.1104903042</v>
       </c>
       <c r="E4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="F4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="G4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="H4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="I4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="J4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="K4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="L4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="M4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="N4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="O4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
       <c r="P4" t="n">
-        <v>28690.65018731762</v>
+        <v>28658.14002281816</v>
       </c>
     </row>
     <row r="5">
@@ -26470,46 +26472,46 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>38339.65294307929</v>
+        <v>38324.65750133767</v>
       </c>
       <c r="D5" t="n">
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="F5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="G5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="H5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="I5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="J5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="K5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="L5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="M5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="N5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="O5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
       <c r="P5" t="n">
-        <v>7110.755217351149</v>
+        <v>7113.737365803781</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31286.06023434381</v>
+        <v>31286.06023434373</v>
       </c>
       <c r="C6" t="n">
-        <v>-94868.55989759439</v>
+        <v>-94467.0906697491</v>
       </c>
       <c r="D6" t="n">
-        <v>77966.32828516903</v>
+        <v>77377.23166848544</v>
       </c>
       <c r="E6" t="n">
-        <v>67368.55989198413</v>
+        <v>67294.22291867883</v>
       </c>
       <c r="F6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="G6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="H6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="I6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="J6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="K6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="L6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="M6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="N6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="O6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
       <c r="P6" t="n">
-        <v>119899.0967582003</v>
+        <v>119934.661941468</v>
       </c>
     </row>
   </sheetData>
@@ -26738,46 +26740,46 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>216.1492175724446</v>
+        <v>215.4613532723704</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="F3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="G3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="H3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="I3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="J3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="K3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="L3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="M3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="N3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="O3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
       <c r="P3" t="n">
-        <v>326.1814319885848</v>
+        <v>326.3182277891643</v>
       </c>
     </row>
     <row r="4">
@@ -26960,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>216.1492175724445</v>
+        <v>215.4613532723704</v>
       </c>
       <c r="D3" t="n">
-        <v>44.64717494502023</v>
+        <v>45.33503924509441</v>
       </c>
       <c r="E3" t="n">
-        <v>65.38503947111997</v>
+        <v>65.52183527169944</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27631,46 +27633,46 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>330.5757541782243</v>
+        <v>330.6040741390811</v>
       </c>
       <c r="I5" t="n">
-        <v>176.9760193775952</v>
+        <v>177.0826279742931</v>
       </c>
       <c r="J5" t="n">
-        <v>107.2955742555736</v>
+        <v>107.5302742460798</v>
       </c>
       <c r="K5" t="n">
-        <v>109.5572237694796</v>
+        <v>109.9089782155523</v>
       </c>
       <c r="L5" t="n">
-        <v>98.64091687123928</v>
+        <v>99.07729936584815</v>
       </c>
       <c r="M5" t="n">
-        <v>77.7676953375541</v>
+        <v>78.25325494471147</v>
       </c>
       <c r="N5" t="n">
-        <v>74.3656454478664</v>
+        <v>74.85906191710453</v>
       </c>
       <c r="O5" t="n">
-        <v>83.69133109099639</v>
+        <v>84.15725027125416</v>
       </c>
       <c r="P5" t="n">
-        <v>106.2781106359148</v>
+        <v>106.6757618768436</v>
       </c>
       <c r="Q5" t="n">
-        <v>128.4697750236904</v>
+        <v>128.7683945450357</v>
       </c>
       <c r="R5" t="n">
-        <v>161.0018864037399</v>
+        <v>161.1755911508335</v>
       </c>
       <c r="S5" t="n">
-        <v>189.2190633734531</v>
+        <v>189.2820772739071</v>
       </c>
       <c r="T5" t="n">
-        <v>219.2920578056454</v>
+        <v>219.3041628346849</v>
       </c>
       <c r="U5" t="n">
-        <v>251.276137581582</v>
+        <v>251.2763588042715</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,49 +27709,49 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8785924310737</v>
+        <v>136.8800719882474</v>
       </c>
       <c r="H6" t="n">
-        <v>107.7452501129632</v>
+        <v>107.7595395204044</v>
       </c>
       <c r="I6" t="n">
-        <v>83.51510303826707</v>
+        <v>83.56604393218765</v>
       </c>
       <c r="J6" t="n">
-        <v>82.91243519753434</v>
+        <v>83.05222090402394</v>
       </c>
       <c r="K6" t="n">
-        <v>62.76629045205057</v>
+        <v>63.00520648918105</v>
       </c>
       <c r="L6" t="n">
-        <v>37.60657774285653</v>
+        <v>37.92782983884872</v>
       </c>
       <c r="M6" t="n">
-        <v>24.33271034503603</v>
+        <v>24.70759638857646</v>
       </c>
       <c r="N6" t="n">
-        <v>10.42253800004659</v>
+        <v>10.80734616165128</v>
       </c>
       <c r="O6" t="n">
-        <v>31.97882363640291</v>
+        <v>32.33084792589464</v>
       </c>
       <c r="P6" t="n">
-        <v>45.19417501179163</v>
+        <v>45.47670553911831</v>
       </c>
       <c r="Q6" t="n">
-        <v>80.63453985745144</v>
+        <v>80.82340403282275</v>
       </c>
       <c r="R6" t="n">
-        <v>116.8133877002326</v>
+        <v>116.9052500307217</v>
       </c>
       <c r="S6" t="n">
-        <v>163.0473981187501</v>
+        <v>163.0748802443238</v>
       </c>
       <c r="T6" t="n">
-        <v>198.2907557613397</v>
+        <v>198.2967194150357</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9107949275447</v>
+        <v>225.9108922668325</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,49 +27788,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.6012020808691</v>
+        <v>167.602442491902</v>
       </c>
       <c r="H7" t="n">
-        <v>158.7616981666879</v>
+        <v>158.772726548417</v>
       </c>
       <c r="I7" t="n">
-        <v>143.7288091611985</v>
+        <v>143.7661117038976</v>
       </c>
       <c r="J7" t="n">
-        <v>99.43816791380756</v>
+        <v>99.52586497383506</v>
       </c>
       <c r="K7" t="n">
-        <v>83.72822537421013</v>
+        <v>83.87233858330762</v>
       </c>
       <c r="L7" t="n">
-        <v>76.93542539304551</v>
+        <v>77.119840684249</v>
       </c>
       <c r="M7" t="n">
-        <v>77.82642397052864</v>
+        <v>78.02086403817091</v>
       </c>
       <c r="N7" t="n">
-        <v>68.03899070462725</v>
+        <v>68.22880742205592</v>
       </c>
       <c r="O7" t="n">
-        <v>83.36329197944329</v>
+        <v>83.53861844071466</v>
       </c>
       <c r="P7" t="n">
-        <v>90.5862140395771</v>
+        <v>90.73623611577688</v>
       </c>
       <c r="Q7" t="n">
-        <v>118.8664697760067</v>
+        <v>118.9703372853179</v>
       </c>
       <c r="R7" t="n">
-        <v>159.7675876048201</v>
+        <v>159.8233609954458</v>
       </c>
       <c r="S7" t="n">
-        <v>217.2238431175235</v>
+        <v>217.2454600988881</v>
       </c>
       <c r="T7" t="n">
-        <v>226.2801774240348</v>
+        <v>226.2854773620845</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2977687777133</v>
+        <v>286.2978364364969</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8689415781806812</v>
+        <v>0.8661762945622925</v>
       </c>
       <c r="H5" t="n">
-        <v>8.899047937542903</v>
+        <v>8.87072797668608</v>
       </c>
       <c r="I5" t="n">
-        <v>33.49987019281074</v>
+        <v>33.39326159611281</v>
       </c>
       <c r="J5" t="n">
-        <v>73.75033027111266</v>
+        <v>73.51563028060644</v>
       </c>
       <c r="K5" t="n">
-        <v>110.5326272755009</v>
+        <v>110.1808728294283</v>
       </c>
       <c r="L5" t="n">
-        <v>137.125498098748</v>
+        <v>136.6891156041391</v>
       </c>
       <c r="M5" t="n">
-        <v>152.5785378897186</v>
+        <v>152.0929782825613</v>
       </c>
       <c r="N5" t="n">
-        <v>155.0474181487245</v>
+        <v>154.5540016794864</v>
       </c>
       <c r="O5" t="n">
-        <v>146.4068803306903</v>
+        <v>145.9409611504326</v>
       </c>
       <c r="P5" t="n">
-        <v>124.9548851193548</v>
+        <v>124.557233878426</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.8359148507591</v>
+        <v>93.53729532941382</v>
       </c>
       <c r="R5" t="n">
-        <v>54.58365141039226</v>
+        <v>54.40994666329865</v>
       </c>
       <c r="S5" t="n">
-        <v>19.80100621279229</v>
+        <v>19.73799231233826</v>
       </c>
       <c r="T5" t="n">
-        <v>3.803791758485934</v>
+        <v>3.791686729446437</v>
       </c>
       <c r="U5" t="n">
-        <v>0.06951532625445447</v>
+        <v>0.06929410356498339</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4649247321369563</v>
+        <v>0.4634451749632119</v>
       </c>
       <c r="H6" t="n">
-        <v>4.490194123533237</v>
+        <v>4.475904716092073</v>
       </c>
       <c r="I6" t="n">
-        <v>16.00727696173293</v>
+        <v>15.95633606781234</v>
       </c>
       <c r="J6" t="n">
-        <v>43.92519146913236</v>
+        <v>43.78540576264275</v>
       </c>
       <c r="K6" t="n">
-        <v>75.07514852230842</v>
+        <v>74.83623248517794</v>
       </c>
       <c r="L6" t="n">
-        <v>100.9478020370177</v>
+        <v>100.6265499410255</v>
       </c>
       <c r="M6" t="n">
-        <v>117.8013235769823</v>
+        <v>117.4264375334419</v>
       </c>
       <c r="N6" t="n">
-        <v>120.9191740832867</v>
+        <v>120.534365921682</v>
       </c>
       <c r="O6" t="n">
-        <v>110.6174208080415</v>
+        <v>110.2653965185498</v>
       </c>
       <c r="P6" t="n">
-        <v>88.78023240253862</v>
+        <v>88.49770187521193</v>
       </c>
       <c r="Q6" t="n">
-        <v>59.34723422857008</v>
+        <v>59.15837005319877</v>
       </c>
       <c r="R6" t="n">
-        <v>28.86611626373139</v>
+        <v>28.77425393324224</v>
       </c>
       <c r="S6" t="n">
-        <v>8.635772985087758</v>
+        <v>8.608290859514039</v>
       </c>
       <c r="T6" t="n">
-        <v>1.873972933481854</v>
+        <v>1.868009279785928</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03058715343006293</v>
+        <v>0.03048981414231658</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3897772775896541</v>
+        <v>0.3885368665567335</v>
       </c>
       <c r="H7" t="n">
-        <v>3.465474340751655</v>
+        <v>3.454445959022597</v>
       </c>
       <c r="I7" t="n">
-        <v>11.72166576605978</v>
+        <v>11.68436322336068</v>
       </c>
       <c r="J7" t="n">
-        <v>27.55725352558855</v>
+        <v>27.46955646556106</v>
       </c>
       <c r="K7" t="n">
-        <v>45.28503279632526</v>
+        <v>45.14091958722776</v>
       </c>
       <c r="L7" t="n">
-        <v>57.94925088819277</v>
+        <v>57.76483559698928</v>
       </c>
       <c r="M7" t="n">
-        <v>61.09935997707642</v>
+        <v>60.90491990943413</v>
       </c>
       <c r="N7" t="n">
-        <v>59.64655376060593</v>
+        <v>59.45673704317727</v>
       </c>
       <c r="O7" t="n">
-        <v>55.0932464723995</v>
+        <v>54.91792001112813</v>
       </c>
       <c r="P7" t="n">
-        <v>47.14179000957051</v>
+        <v>46.99176793337073</v>
       </c>
       <c r="Q7" t="n">
-        <v>32.63853185343913</v>
+        <v>32.53466434412793</v>
       </c>
       <c r="R7" t="n">
-        <v>17.52580377234936</v>
+        <v>17.47003038172367</v>
       </c>
       <c r="S7" t="n">
-        <v>6.792754919448789</v>
+        <v>6.771137938084162</v>
       </c>
       <c r="T7" t="n">
-        <v>1.665412004246704</v>
+        <v>1.660112066196952</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02126057877761752</v>
+        <v>0.02119291999400367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H11" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I11" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J11" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K11" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L11" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M11" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P11" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q11" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R11" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S11" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T11" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H12" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I12" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J12" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K12" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31859,19 +31861,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R12" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S12" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T12" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H13" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I13" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J13" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K13" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L13" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M13" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N13" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O13" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P13" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R13" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S13" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T13" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H14" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I14" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J14" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K14" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L14" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M14" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P14" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R14" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S14" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T14" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H15" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I15" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J15" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K15" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32096,19 +32098,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R15" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S15" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T15" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H16" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I16" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J16" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K16" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L16" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M16" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N16" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O16" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P16" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R16" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S16" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T16" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H17" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I17" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J17" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K17" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L17" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M17" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P17" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R17" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S17" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T17" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H18" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I18" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J18" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K18" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32333,19 +32335,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R18" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S18" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T18" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H19" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I19" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J19" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K19" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L19" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M19" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N19" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O19" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P19" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q19" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R19" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S19" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T19" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H20" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I20" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J20" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K20" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L20" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M20" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P20" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q20" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R20" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S20" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T20" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H21" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I21" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J21" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K21" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32570,19 +32572,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R21" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S21" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T21" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H22" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I22" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J22" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K22" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L22" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M22" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N22" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O22" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P22" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q22" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R22" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S22" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T22" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H23" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I23" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J23" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K23" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L23" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M23" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P23" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R23" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S23" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T23" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H24" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I24" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J24" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K24" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32807,19 +32809,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R24" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S24" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T24" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H25" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I25" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J25" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K25" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L25" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M25" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N25" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O25" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P25" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q25" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R25" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S25" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T25" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H26" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I26" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J26" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K26" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L26" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M26" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P26" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q26" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R26" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S26" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T26" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H27" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I27" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J27" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K27" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33044,19 +33046,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R27" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S27" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T27" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H28" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I28" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J28" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K28" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L28" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M28" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N28" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O28" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P28" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R28" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S28" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T28" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H29" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I29" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J29" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K29" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L29" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M29" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P29" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q29" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R29" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S29" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T29" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H30" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I30" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J30" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K30" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33281,19 +33283,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R30" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S30" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T30" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H31" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I31" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J31" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K31" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L31" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M31" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N31" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O31" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P31" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R31" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S31" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T31" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H32" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I32" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J32" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K32" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L32" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M32" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P32" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R32" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S32" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T32" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H33" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I33" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J33" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K33" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33518,19 +33520,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R33" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S33" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T33" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H34" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I34" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J34" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K34" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L34" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M34" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N34" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O34" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P34" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R34" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S34" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T34" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H35" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I35" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J35" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K35" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L35" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M35" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P35" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q35" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R35" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S35" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T35" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H36" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I36" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J36" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K36" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33755,19 +33757,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R36" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S36" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T36" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H37" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I37" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J37" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K37" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L37" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M37" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N37" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O37" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P37" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q37" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R37" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S37" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T37" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H38" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I38" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J38" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K38" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L38" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M38" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P38" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q38" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R38" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S38" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T38" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H39" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I39" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J39" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K39" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33992,19 +33994,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R39" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S39" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T39" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H40" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I40" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J40" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K40" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L40" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M40" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N40" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O40" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P40" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R40" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S40" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T40" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H41" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I41" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J41" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K41" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L41" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M41" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P41" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q41" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R41" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S41" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T41" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H42" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I42" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J42" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K42" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34229,19 +34231,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R42" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S42" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T42" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H43" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I43" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J43" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K43" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L43" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M43" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N43" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O43" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P43" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R43" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S43" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T43" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.311282138647576</v>
+        <v>1.311832071514227</v>
       </c>
       <c r="H44" t="n">
-        <v>13.42916820242449</v>
+        <v>13.43480020239508</v>
       </c>
       <c r="I44" t="n">
-        <v>50.55320465021072</v>
+        <v>50.57440593705229</v>
       </c>
       <c r="J44" t="n">
-        <v>111.2934324150398</v>
+        <v>111.3401072796808</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8000053439917</v>
+        <v>166.869958866878</v>
       </c>
       <c r="L44" t="n">
-        <v>206.9301560946275</v>
+        <v>207.0169396254816</v>
       </c>
       <c r="M44" t="n">
-        <v>230.2496698278014</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>220.9362884380569</v>
+        <v>221.0289459393429</v>
       </c>
       <c r="P44" t="n">
-        <v>188.5640106401949</v>
+        <v>188.6430916738354</v>
       </c>
       <c r="Q44" t="n">
-        <v>141.6037190498785</v>
+        <v>141.6631056127321</v>
       </c>
       <c r="R44" t="n">
-        <v>82.36982664182088</v>
+        <v>82.40437136225565</v>
       </c>
       <c r="S44" t="n">
-        <v>29.88084173443167</v>
+        <v>29.89337332963048</v>
       </c>
       <c r="T44" t="n">
-        <v>5.740137561929767</v>
+        <v>5.742544893053533</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1049025710918061</v>
+        <v>0.1049465657211382</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.701597797107522</v>
+        <v>0.7018920371314099</v>
       </c>
       <c r="H45" t="n">
-        <v>6.775957672064753</v>
+        <v>6.778799411242828</v>
       </c>
       <c r="I45" t="n">
-        <v>24.15588906707916</v>
+        <v>24.16601969948056</v>
       </c>
       <c r="J45" t="n">
-        <v>66.28560591005761</v>
+        <v>66.31340513968291</v>
       </c>
       <c r="K45" t="n">
-        <v>113.2926583162616</v>
+        <v>113.3401716274874</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34466,19 +34468,19 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.55834336411107</v>
+        <v>89.59590284505508</v>
       </c>
       <c r="R45" t="n">
-        <v>43.56060708707933</v>
+        <v>43.57887577908878</v>
       </c>
       <c r="S45" t="n">
-        <v>13.03187136294015</v>
+        <v>13.03733674233122</v>
       </c>
       <c r="T45" t="n">
-        <v>2.827931471674616</v>
+        <v>2.829117465455112</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04615774980970541</v>
+        <v>0.04617710770601383</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5881960248974479</v>
+        <v>0.5884427058493126</v>
       </c>
       <c r="H46" t="n">
-        <v>5.229597384997313</v>
+        <v>5.231790602914801</v>
       </c>
       <c r="I46" t="n">
-        <v>17.68865863964326</v>
+        <v>17.69607700863206</v>
       </c>
       <c r="J46" t="n">
-        <v>41.58545896024957</v>
+        <v>41.60289930354639</v>
       </c>
       <c r="K46" t="n">
-        <v>68.33768361990347</v>
+        <v>68.36634346140194</v>
       </c>
       <c r="L46" t="n">
-        <v>87.44870719248058</v>
+        <v>87.48538192236053</v>
       </c>
       <c r="M46" t="n">
-        <v>92.20240052096993</v>
+        <v>92.24106888145177</v>
       </c>
       <c r="N46" t="n">
-        <v>90.01003351907953</v>
+        <v>90.04778243237713</v>
       </c>
       <c r="O46" t="n">
-        <v>83.13883450095931</v>
+        <v>83.17370173222832</v>
       </c>
       <c r="P46" t="n">
-        <v>71.13963559305131</v>
+        <v>71.16947053290228</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.2533962302763</v>
+        <v>49.2740523961638</v>
       </c>
       <c r="R46" t="n">
-        <v>26.44743217402524</v>
+        <v>26.45852384664272</v>
       </c>
       <c r="S46" t="n">
-        <v>10.25065254298552</v>
+        <v>10.25495151921029</v>
       </c>
       <c r="T46" t="n">
-        <v>2.513201197289095</v>
+        <v>2.514255197719789</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03208341953986083</v>
+        <v>0.032096874864508</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
